--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,1549 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H2">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>23.5834937228278</v>
+        <v>0.2365093333333333</v>
       </c>
       <c r="N2">
-        <v>23.5834937228278</v>
+        <v>0.709528</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.006013533229697845</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.006013533229697844</v>
       </c>
       <c r="Q2">
-        <v>12.72438806212934</v>
+        <v>0.1397718127946667</v>
       </c>
       <c r="R2">
-        <v>12.72438806212934</v>
+        <v>1.257946315152</v>
       </c>
       <c r="S2">
-        <v>0.1444685474782753</v>
+        <v>0.0008182419370012131</v>
       </c>
       <c r="T2">
-        <v>0.1444685474782753</v>
+        <v>0.0008182419370012132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.451202638590928</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H3">
-        <v>0.451202638590928</v>
+        <v>1.772934</v>
       </c>
       <c r="I3">
-        <v>0.1208136970701578</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J3">
-        <v>0.1208136970701578</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.5834937228278</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
-        <v>23.5834937228278</v>
+        <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001909532925058086</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001909532925058085</v>
       </c>
       <c r="Q3">
-        <v>10.64093459493249</v>
+        <v>0.04438303877799999</v>
       </c>
       <c r="R3">
-        <v>10.64093459493249</v>
+        <v>0.399447349002</v>
       </c>
       <c r="S3">
-        <v>0.1208136970701578</v>
+        <v>0.0002598239437093171</v>
       </c>
       <c r="T3">
-        <v>0.1208136970701578</v>
+        <v>0.0002598239437093171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.74394872368521</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H4">
-        <v>2.74394872368521</v>
+        <v>1.772934</v>
       </c>
       <c r="I4">
-        <v>0.7347177554515669</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J4">
-        <v>0.7347177554515669</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>23.5834937228278</v>
+        <v>0.006358</v>
       </c>
       <c r="N4">
-        <v>23.5834937228278</v>
+        <v>0.019074</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0001616597693442072</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0001616597693442072</v>
       </c>
       <c r="Q4">
-        <v>64.71189750079151</v>
+        <v>0.003757438123999999</v>
       </c>
       <c r="R4">
-        <v>64.71189750079151</v>
+        <v>0.033816943116</v>
       </c>
       <c r="S4">
-        <v>0.7347177554515669</v>
+        <v>2.1996519808043E-05</v>
       </c>
       <c r="T4">
-        <v>0.7347177554515669</v>
+        <v>2.199651980804301E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5909779999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.772934</v>
+      </c>
+      <c r="I5">
+        <v>0.1360667523977957</v>
+      </c>
+      <c r="J5">
+        <v>0.1360667523977957</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.302191</v>
+      </c>
+      <c r="O5">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P5">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q5">
+        <v>0.05952941093266665</v>
+      </c>
+      <c r="R5">
+        <v>0.5357646983939999</v>
+      </c>
+      <c r="S5">
+        <v>0.0003484927292289149</v>
+      </c>
+      <c r="T5">
+        <v>0.000348492729228915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5909779999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.772934</v>
+      </c>
+      <c r="I6">
+        <v>0.1360667523977957</v>
+      </c>
+      <c r="J6">
+        <v>0.1360667523977957</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N6">
+        <v>116.732443</v>
+      </c>
+      <c r="O6">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P6">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q6">
+        <v>22.99543523308466</v>
+      </c>
+      <c r="R6">
+        <v>206.958917097762</v>
+      </c>
+      <c r="S6">
+        <v>0.1346181972680482</v>
+      </c>
+      <c r="T6">
+        <v>0.1346181972680482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.404332</v>
+      </c>
+      <c r="I7">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="J7">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.709528</v>
+      </c>
+      <c r="O7">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P7">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q7">
+        <v>0.1107125416995556</v>
+      </c>
+      <c r="R7">
+        <v>0.9964128752960002</v>
+      </c>
+      <c r="S7">
+        <v>0.0006481252747551731</v>
+      </c>
+      <c r="T7">
+        <v>0.0006481252747551731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.404332</v>
+      </c>
+      <c r="I8">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="J8">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.075101</v>
+      </c>
+      <c r="N8">
+        <v>0.225303</v>
+      </c>
+      <c r="O8">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P8">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q8">
+        <v>0.03515557917733334</v>
+      </c>
+      <c r="R8">
+        <v>0.316400212596</v>
+      </c>
+      <c r="S8">
+        <v>0.0002058052237236089</v>
+      </c>
+      <c r="T8">
+        <v>0.0002058052237236089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.404332</v>
+      </c>
+      <c r="I9">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="J9">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006358</v>
+      </c>
+      <c r="N9">
+        <v>0.019074</v>
+      </c>
+      <c r="O9">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P9">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q9">
+        <v>0.002976247618666667</v>
+      </c>
+      <c r="R9">
+        <v>0.026786228568</v>
+      </c>
+      <c r="S9">
+        <v>1.74233314128268E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.74233314128268E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.404332</v>
+      </c>
+      <c r="I10">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="J10">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.302191</v>
+      </c>
+      <c r="O10">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P10">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q10">
+        <v>0.04715294349022223</v>
+      </c>
+      <c r="R10">
+        <v>0.424376491412</v>
+      </c>
+      <c r="S10">
+        <v>0.0002760393175513024</v>
+      </c>
+      <c r="T10">
+        <v>0.0002760393175513024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.404332</v>
+      </c>
+      <c r="I11">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="J11">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N11">
+        <v>116.732443</v>
+      </c>
+      <c r="O11">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P11">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q11">
+        <v>18.21456723811956</v>
+      </c>
+      <c r="R11">
+        <v>163.931105143076</v>
+      </c>
+      <c r="S11">
+        <v>0.106630389064586</v>
+      </c>
+      <c r="T11">
+        <v>0.106630389064586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.068176</v>
+      </c>
+      <c r="I12">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J12">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.709528</v>
+      </c>
+      <c r="O12">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P12">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q12">
+        <v>0.005374753436444445</v>
+      </c>
+      <c r="R12">
+        <v>0.048372780928</v>
+      </c>
+      <c r="S12">
+        <v>3.146448897533395E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.146448897533395E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.068176</v>
+      </c>
+      <c r="I13">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J13">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.075101</v>
+      </c>
+      <c r="N13">
+        <v>0.225303</v>
+      </c>
+      <c r="O13">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P13">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q13">
+        <v>0.001706695258666667</v>
+      </c>
+      <c r="R13">
+        <v>0.015360257328</v>
+      </c>
+      <c r="S13">
+        <v>9.991210719816082E-06</v>
+      </c>
+      <c r="T13">
+        <v>9.991210719816082E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.068176</v>
+      </c>
+      <c r="I14">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J14">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006358</v>
+      </c>
+      <c r="N14">
+        <v>0.019074</v>
+      </c>
+      <c r="O14">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P14">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q14">
+        <v>0.0001444876693333333</v>
+      </c>
+      <c r="R14">
+        <v>0.001300389024</v>
+      </c>
+      <c r="S14">
+        <v>8.458491598858955E-07</v>
+      </c>
+      <c r="T14">
+        <v>8.458491598858957E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.068176</v>
+      </c>
+      <c r="I15">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J15">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.302191</v>
+      </c>
+      <c r="O15">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P15">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q15">
+        <v>0.002289130401777778</v>
+      </c>
+      <c r="R15">
+        <v>0.020602173616</v>
+      </c>
+      <c r="S15">
+        <v>1.34008599913536E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.340085999135361E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.068176</v>
+      </c>
+      <c r="I16">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J16">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N16">
+        <v>116.732443</v>
+      </c>
+      <c r="O16">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P16">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q16">
+        <v>0.8842612259964445</v>
+      </c>
+      <c r="R16">
+        <v>7.958351033968</v>
+      </c>
+      <c r="S16">
+        <v>0.005176577479447321</v>
+      </c>
+      <c r="T16">
+        <v>0.005176577479447321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.31118</v>
+      </c>
+      <c r="I17">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J17">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.709528</v>
+      </c>
+      <c r="O17">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P17">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q17">
+        <v>0.02453232478222223</v>
+      </c>
+      <c r="R17">
+        <v>0.22079092304</v>
+      </c>
+      <c r="S17">
+        <v>0.0001436153438063896</v>
+      </c>
+      <c r="T17">
+        <v>0.0001436153438063896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.31118</v>
+      </c>
+      <c r="I18">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J18">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.075101</v>
+      </c>
+      <c r="N18">
+        <v>0.225303</v>
+      </c>
+      <c r="O18">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P18">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q18">
+        <v>0.007789976393333334</v>
+      </c>
+      <c r="R18">
+        <v>0.07010978754000001</v>
+      </c>
+      <c r="S18">
+        <v>4.560351079254237E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.560351079254237E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.31118</v>
+      </c>
+      <c r="I19">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J19">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.006358</v>
+      </c>
+      <c r="N19">
+        <v>0.019074</v>
+      </c>
+      <c r="O19">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P19">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q19">
+        <v>0.0006594941466666667</v>
+      </c>
+      <c r="R19">
+        <v>0.00593544732</v>
+      </c>
+      <c r="S19">
+        <v>3.860762461471676E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.860762461471677E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.31118</v>
+      </c>
+      <c r="I20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.302191</v>
+      </c>
+      <c r="O20">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P20">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q20">
+        <v>0.01044842170888889</v>
+      </c>
+      <c r="R20">
+        <v>0.09403579538</v>
+      </c>
+      <c r="S20">
+        <v>6.11663871759771E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.11663871759771E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.31118</v>
+      </c>
+      <c r="I21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N21">
+        <v>116.732443</v>
+      </c>
+      <c r="O21">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P21">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q21">
+        <v>4.036089068082223</v>
+      </c>
+      <c r="R21">
+        <v>36.32480161274</v>
+      </c>
+      <c r="S21">
+        <v>0.02362777781117134</v>
+      </c>
+      <c r="T21">
+        <v>0.02362777781117134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.157754</v>
+      </c>
+      <c r="H22">
+        <v>9.473262</v>
+      </c>
+      <c r="I22">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J22">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.709528</v>
+      </c>
+      <c r="O22">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P22">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q22">
+        <v>0.7468382933706668</v>
+      </c>
+      <c r="R22">
+        <v>6.721544640336001</v>
+      </c>
+      <c r="S22">
+        <v>0.004372086185159735</v>
+      </c>
+      <c r="T22">
+        <v>0.004372086185159735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.157754</v>
+      </c>
+      <c r="H23">
+        <v>9.473262</v>
+      </c>
+      <c r="I23">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J23">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.075101</v>
+      </c>
+      <c r="N23">
+        <v>0.225303</v>
+      </c>
+      <c r="O23">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P23">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q23">
+        <v>0.237150483154</v>
+      </c>
+      <c r="R23">
+        <v>2.134354348386</v>
+      </c>
+      <c r="S23">
+        <v>0.001388309036112801</v>
+      </c>
+      <c r="T23">
+        <v>0.001388309036112801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.157754</v>
+      </c>
+      <c r="H24">
+        <v>9.473262</v>
+      </c>
+      <c r="I24">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J24">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.006358</v>
+      </c>
+      <c r="N24">
+        <v>0.019074</v>
+      </c>
+      <c r="O24">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P24">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q24">
+        <v>0.020076999932</v>
+      </c>
+      <c r="R24">
+        <v>0.180692999388</v>
+      </c>
+      <c r="S24">
+        <v>0.0001175333065019799</v>
+      </c>
+      <c r="T24">
+        <v>0.0001175333065019799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.157754</v>
+      </c>
+      <c r="H25">
+        <v>9.473262</v>
+      </c>
+      <c r="I25">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J25">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.302191</v>
+      </c>
+      <c r="O25">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P25">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q25">
+        <v>0.3180816130046666</v>
+      </c>
+      <c r="R25">
+        <v>2.862734517042</v>
+      </c>
+      <c r="S25">
+        <v>0.001862090144969057</v>
+      </c>
+      <c r="T25">
+        <v>0.001862090144969057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.157754</v>
+      </c>
+      <c r="H26">
+        <v>9.473262</v>
+      </c>
+      <c r="I26">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J26">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N26">
+        <v>116.732443</v>
+      </c>
+      <c r="O26">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P26">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q26">
+        <v>122.8707796043407</v>
+      </c>
+      <c r="R26">
+        <v>1105.837016439066</v>
+      </c>
+      <c r="S26">
+        <v>0.7193011430137305</v>
+      </c>
+      <c r="T26">
+        <v>0.7193011430137305</v>
       </c>
     </row>
   </sheetData>
